--- a/biology/Zoologie/Bucarde_épineuse/Bucarde_épineuse.xlsx
+++ b/biology/Zoologie/Bucarde_épineuse/Bucarde_épineuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bucarde_%C3%A9pineuse</t>
+          <t>Bucarde_épineuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthocardia aculeata
 La Bucarde épineuse (Acanthocardia aculeata) est une espèce de mollusques bivalves de la famille des Cardiidae. C'est une espèce comestible.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bucarde_%C3%A9pineuse</t>
+          <t>Bucarde_épineuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve en mer Méditerranée et dans le Nord-Est de l'océan Atlantique. La Bucarde épineuse se rencontre à des profondeurs comprises entre 10 et probablement 100 m[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve en mer Méditerranée et dans le Nord-Est de l'océan Atlantique. La Bucarde épineuse se rencontre à des profondeurs comprises entre 10 et probablement 100 m.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bucarde_%C3%A9pineuse</t>
+          <t>Bucarde_épineuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si ce bivalve mesure habituellement 7 cm de longueur, il peut exceptionnellement atteindre 10 cm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si ce bivalve mesure habituellement 7 cm de longueur, il peut exceptionnellement atteindre 10 cm.
 Valve droite et gauche du même spécimen:
 			Valve droite
 			Valve gauche
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bucarde_%C3%A9pineuse</t>
+          <t>Bucarde_épineuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mollusque se nourrit de phytoplancton[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mollusque se nourrit de phytoplancton.
 </t>
         </is>
       </c>
